--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-908011.2563963144</v>
+        <v>-910567.5722235643</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>145.2481701217134</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>120.564383124314</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,19 +817,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>46.66139061606864</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.67709528776653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>74.84971402118512</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>360.8597259574949</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>54.8973087650236</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>257.6454816266681</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>156.2362292657417</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.152727013335143</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.30622015837534</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>20.95866062610961</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>88.92406475355425</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>78.34975387299269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>73.74785292486405</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>241.1435815093809</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>115.9451354277995</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>161.1945470524454</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487373</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="27">
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.136400530892</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445515</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.981188826526</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392135</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D2" t="n">
-        <v>406.0926155839475</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,22 +4325,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,13 +4352,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,10 +4425,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398575</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.8293338103399</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.321240915451</v>
+        <v>2123.189610021303</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>1754.227093080891</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1395.961394474141</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1010.173141875897</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>599.1872370862891</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>184.1147869312856</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649823</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W5" t="n">
-        <v>2788.565186649823</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.060412955384</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.921080979572</v>
+        <v>2123.189610021303</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>121.9639434675608</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>121.9639434675608</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>121.9639434675608</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450119</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450119</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U7" t="n">
-        <v>468.9531604059532</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="V7" t="n">
-        <v>468.9531604059532</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="W7" t="n">
-        <v>468.9531604059532</v>
+        <v>349.9534943655781</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>121.9639434675608</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>121.9639434675608</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3057.500780140567</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3057.500780140567</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3057.500780140567</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2741.012457539436</v>
+        <v>2331.266366609373</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>138.5386014406434</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T10" t="n">
-        <v>899.7166415493873</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="U10" t="n">
-        <v>610.6137746750309</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="V10" t="n">
-        <v>355.929286469144</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="W10" t="n">
-        <v>66.5121164321834</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="X10" t="n">
-        <v>66.5121164321834</v>
+        <v>320.1870662708831</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.5121164321834</v>
+        <v>320.1870662708831</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>251.5626541092259</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2174.285961605313</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855606</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603201</v>
+        <v>1871.240688199804</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397314</v>
+        <v>1616.556199993917</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956956</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058939</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154087</v>
       </c>
     </row>
     <row r="17">
@@ -5492,61 +5492,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290468</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2262.80108142074</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.199616443681</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2043.199616443681</v>
+        <v>1814.638305710059</v>
       </c>
       <c r="V19" t="n">
-        <v>1788.515128237794</v>
+        <v>1559.953817504172</v>
       </c>
       <c r="W19" t="n">
-        <v>1499.097958200834</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302816</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159286</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,25 +5738,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5826,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6367,10 +6367,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7163,7 +7163,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,19 +7336,19 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,22 +7831,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>209.4348714989696</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>261.3659869479478</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>236.9606991495831</v>
+        <v>19.09069760567021</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>179.0482647729685</v>
       </c>
       <c r="Y4" t="n">
-        <v>180.9075580643283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229299</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>128.481385573734</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>147.3599015160445</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520908</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>106.0841272570732</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>45.37941682721012</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>65.08115057384508</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>124.9899273367988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998587.6312764991</v>
+        <v>998587.6312764987</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1204569.945738042</v>
+        <v>1204569.945738043</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1204569.945738042</v>
+        <v>1204569.945738043</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1204569.945738043</v>
+        <v>1204569.945738042</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1204569.945738043</v>
+        <v>1204569.945738042</v>
       </c>
     </row>
     <row r="11">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186177.354983754</v>
+        <v>186177.3549837539</v>
       </c>
       <c r="C2" t="n">
+        <v>225786.486712678</v>
+      </c>
+      <c r="D2" t="n">
         <v>225786.4867126779</v>
       </c>
-      <c r="D2" t="n">
-        <v>225786.486712678</v>
-      </c>
       <c r="E2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147516</v>
       </c>
       <c r="F2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147516</v>
       </c>
       <c r="G2" t="n">
         <v>221965.3149147517</v>
@@ -26335,25 +26335,25 @@
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073555</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363166</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691501</v>
+        <v>11387.33216691492</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26433,28 +26433,28 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
+        <v>14826.69604186736</v>
+      </c>
+      <c r="I4" t="n">
         <v>14826.69604186738</v>
       </c>
-      <c r="I4" t="n">
-        <v>14826.69604186736</v>
-      </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="M4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22817.55530496082</v>
+      </c>
+      <c r="O4" t="n">
         <v>22817.55530496084</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22817.55530496081</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22817.55530496082</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496083</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261888.663472147</v>
+        <v>-1262248.746487864</v>
       </c>
       <c r="C6" t="n">
-        <v>24255.80204723201</v>
+        <v>24255.80204723209</v>
       </c>
       <c r="D6" t="n">
-        <v>24255.80204723225</v>
+        <v>24255.8020472317</v>
       </c>
       <c r="E6" t="n">
-        <v>-219396.3727583782</v>
+        <v>-219431.1106838141</v>
       </c>
       <c r="F6" t="n">
-        <v>106016.0890489774</v>
+        <v>105981.3511235414</v>
       </c>
       <c r="G6" t="n">
-        <v>106016.0890489772</v>
+        <v>105981.3511235415</v>
       </c>
       <c r="H6" t="n">
-        <v>106016.0890489771</v>
+        <v>105981.3511235415</v>
       </c>
       <c r="I6" t="n">
-        <v>106016.0890489772</v>
+        <v>105981.3511235419</v>
       </c>
       <c r="J6" t="n">
-        <v>-111515.1133483003</v>
+        <v>-111549.851273736</v>
       </c>
       <c r="K6" t="n">
-        <v>106016.0890489771</v>
+        <v>105981.3511235416</v>
       </c>
       <c r="L6" t="n">
-        <v>80377.09756017016</v>
+        <v>80377.09756017014</v>
       </c>
       <c r="M6" t="n">
-        <v>14749.78761828993</v>
+        <v>14749.78761828991</v>
       </c>
       <c r="N6" t="n">
-        <v>99804.81555380183</v>
+        <v>99804.81555380186</v>
       </c>
       <c r="O6" t="n">
-        <v>99804.81555380189</v>
+        <v>99804.81555380186</v>
       </c>
       <c r="P6" t="n">
-        <v>99804.81555380183</v>
+        <v>99804.81555380186</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>49.25113905602981</v>
+        <v>267.1211405999427</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>219.7580503661353</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>8.871374720974131</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>91.53665388154556</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>28.56635657894481</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>47.68174087387843</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>377.0852116427184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.44879475594544</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>198.5902886500596</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>297.1808238847165</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149942</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>754.000239683233</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,31 +33023,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103575</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>245.9177694853267</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929758</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999001</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998997</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409631</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,31 +36671,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
